--- a/artfynd/A 67709-2021.xlsx
+++ b/artfynd/A 67709-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104160382</v>
+        <v>104160384</v>
       </c>
       <c r="B2" t="n">
-        <v>90665</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>411074.3833080759</v>
+        <v>411140.6060271781</v>
       </c>
       <c r="R2" t="n">
-        <v>6832670.904083606</v>
+        <v>6832762.47154438</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104160384</v>
+        <v>104160382</v>
       </c>
       <c r="B3" t="n">
-        <v>90653</v>
+        <v>90665</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>411140.6060271781</v>
+        <v>411074.3833080759</v>
       </c>
       <c r="R3" t="n">
-        <v>6832762.47154438</v>
+        <v>6832670.904083606</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 67709-2021.xlsx
+++ b/artfynd/A 67709-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104160384</v>
+        <v>104160382</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>90665</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>411140.6060271781</v>
+        <v>411074.3833080759</v>
       </c>
       <c r="R2" t="n">
-        <v>6832762.47154438</v>
+        <v>6832670.904083606</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104160382</v>
+        <v>104160384</v>
       </c>
       <c r="B3" t="n">
-        <v>90665</v>
+        <v>90653</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>411074.3833080759</v>
+        <v>411140.6060271781</v>
       </c>
       <c r="R3" t="n">
-        <v>6832670.904083606</v>
+        <v>6832762.47154438</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
